--- a/data/trans_orig/P0802-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P0802-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51E8DBEB-3525-4289-848E-DF498A7F2F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC9A55B2-4285-4354-B289-9A5C3E06F991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF772DB8-259E-4782-BD6C-FB4D34C48C9F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D40426DF-C6CC-44FB-89CD-8D2BBFB53CE8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="610">
   <si>
     <t>Población según limitación a subir varios pisos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>87,04%</t>
   </si>
   <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>70,89%</t>
   </si>
   <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
   </si>
   <si>
     <t>79,06%</t>
   </si>
   <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
   </si>
   <si>
     <t>SI, LIMITA UN POCO</t>
@@ -107,1723 +107,1768 @@
     <t>9,35%</t>
   </si>
   <si>
-    <t>4,98%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>SI, LIMITA MUCHO</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
   </si>
   <si>
     <t>16,34%</t>
   </si>
   <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>SI, LIMITA MUCHO</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>11,49%</t>
   </si>
   <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
   <si>
     <t>12,11%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
   </si>
   <si>
     <t>6,5%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
   </si>
 </sst>
 </file>
@@ -2235,7 +2280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2725640B-47EC-4DB5-BBA2-783D6CC5E72B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F70AD25-4675-4CA6-A9D5-DD89B27885FE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2598,10 +2643,10 @@
         <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,13 +2661,13 @@
         <v>59933</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -2631,13 +2676,13 @@
         <v>98940</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>161</v>
@@ -2646,13 +2691,13 @@
         <v>158873</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,13 +2712,13 @@
         <v>20621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -2682,13 +2727,13 @@
         <v>27919</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -2697,13 +2742,13 @@
         <v>48540</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,7 +2804,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2774,10 +2819,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>705</v>
@@ -2786,13 +2831,13 @@
         <v>748086</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>1479</v>
@@ -2801,13 +2846,13 @@
         <v>1585273</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2867,13 @@
         <v>91025</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>160</v>
@@ -2837,13 +2882,13 @@
         <v>172827</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>250</v>
@@ -2852,13 +2897,13 @@
         <v>263852</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2918,13 @@
         <v>33588</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -2888,13 +2933,13 @@
         <v>47480</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -2903,13 +2948,13 @@
         <v>81068</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,7 +3010,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2977,13 +3022,13 @@
         <v>573338</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>523</v>
@@ -2992,13 +3037,13 @@
         <v>513828</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>1061</v>
@@ -3007,13 +3052,13 @@
         <v>1087166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3073,13 @@
         <v>79435</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>114</v>
@@ -3043,13 +3088,13 @@
         <v>110295</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>191</v>
@@ -3058,10 +3103,10 @@
         <v>189730</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>111</v>
@@ -3252,10 +3297,10 @@
         <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>257</v>
@@ -3264,13 +3309,13 @@
         <v>256946</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3330,13 @@
         <v>36901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -3300,13 +3345,13 @@
         <v>72782</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -3315,13 +3360,13 @@
         <v>109683</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3434,13 @@
         <v>2820228</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>2538</v>
@@ -3404,28 +3449,28 @@
         <v>2593600</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>5285</v>
       </c>
       <c r="N24" s="7">
-        <v>5413827</v>
+        <v>5413828</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3485,13 @@
         <v>335311</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>556</v>
@@ -3455,13 +3500,13 @@
         <v>572074</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>900</v>
@@ -3470,13 +3515,13 @@
         <v>907384</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3536,13 @@
         <v>121005</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>203</v>
@@ -3506,13 +3551,13 @@
         <v>213524</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>326</v>
@@ -3521,13 +3566,13 @@
         <v>334529</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,7 +3614,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3583,7 +3628,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3604,7 +3649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D0388A-8B85-442B-A035-22AE5E5B802B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E68B90A-A65A-4DC8-A562-529BC90A7B9F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3621,7 +3666,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3728,13 +3773,13 @@
         <v>97852</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>67</v>
@@ -3743,13 +3788,13 @@
         <v>75575</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>168</v>
@@ -3758,13 +3803,13 @@
         <v>173426</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3824,13 @@
         <v>13524</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -3794,13 +3839,13 @@
         <v>19676</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -3809,13 +3854,13 @@
         <v>33200</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,10 +3878,10 @@
         <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -3845,13 +3890,13 @@
         <v>16654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M6" s="7">
         <v>20</v>
@@ -3860,13 +3905,13 @@
         <v>21043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3979,13 @@
         <v>491089</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H8" s="7">
         <v>409</v>
@@ -3949,13 +3994,13 @@
         <v>434200</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>874</v>
@@ -3964,13 +4009,13 @@
         <v>925289</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +4030,13 @@
         <v>64470</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H9" s="7">
         <v>88</v>
@@ -4000,13 +4045,13 @@
         <v>93825</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M9" s="7">
         <v>146</v>
@@ -4015,13 +4060,13 @@
         <v>158295</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4081,13 @@
         <v>32145</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -4051,13 +4096,13 @@
         <v>57120</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -4066,13 +4111,13 @@
         <v>89265</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,7 +4173,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4140,13 +4185,13 @@
         <v>850650</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H12" s="7">
         <v>700</v>
@@ -4155,13 +4200,13 @@
         <v>769676</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="M12" s="7">
         <v>1485</v>
@@ -4170,13 +4215,13 @@
         <v>1620325</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4236,13 @@
         <v>111976</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -4206,13 +4251,13 @@
         <v>152760</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M13" s="7">
         <v>242</v>
@@ -4221,13 +4266,13 @@
         <v>264737</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4287,13 @@
         <v>55321</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
         <v>99</v>
@@ -4257,13 +4302,13 @@
         <v>108661</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M14" s="7">
         <v>148</v>
@@ -4272,13 +4317,13 @@
         <v>163982</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>250</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,7 +4379,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4346,13 +4391,13 @@
         <v>662733</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>542</v>
@@ -4361,13 +4406,13 @@
         <v>597447</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>1148</v>
@@ -4376,13 +4421,13 @@
         <v>1260179</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4442,13 @@
         <v>62404</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
@@ -4412,13 +4457,13 @@
         <v>106427</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>156</v>
@@ -4427,13 +4472,13 @@
         <v>168832</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,10 +4496,10 @@
         <v>37</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H18" s="7">
         <v>64</v>
@@ -4463,13 +4508,13 @@
         <v>73300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -4478,13 +4523,13 @@
         <v>105786</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4597,13 @@
         <v>787771</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>732</v>
@@ -4567,13 +4612,13 @@
         <v>764610</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>1497</v>
@@ -4582,13 +4627,13 @@
         <v>1552381</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4648,13 @@
         <v>106877</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H21" s="7">
         <v>183</v>
@@ -4618,13 +4663,13 @@
         <v>195707</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M21" s="7">
         <v>280</v>
@@ -4633,13 +4678,13 @@
         <v>302584</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4699,13 @@
         <v>49170</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H22" s="7">
         <v>88</v>
@@ -4669,13 +4714,13 @@
         <v>91584</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M22" s="7">
         <v>133</v>
@@ -4684,13 +4729,13 @@
         <v>140754</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4803,13 @@
         <v>2890095</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>130</v>
+        <v>307</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H24" s="7">
         <v>2450</v>
@@ -4773,13 +4818,13 @@
         <v>2641507</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M24" s="7">
         <v>5172</v>
@@ -4788,13 +4833,13 @@
         <v>5531602</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4854,13 @@
         <v>359252</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H25" s="7">
         <v>527</v>
@@ -4824,13 +4869,13 @@
         <v>568396</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M25" s="7">
         <v>857</v>
@@ -4839,13 +4884,13 @@
         <v>927648</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,13 +4905,13 @@
         <v>173511</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H26" s="7">
         <v>320</v>
@@ -4875,13 +4920,13 @@
         <v>347319</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M26" s="7">
         <v>474</v>
@@ -4890,13 +4935,13 @@
         <v>520830</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>327</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,7 +4997,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4973,7 +5018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC73D594-36A9-4992-9812-0EC0BF1F3583}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73604B7A-FB44-4C1D-8FD0-BE7396FF1459}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4990,7 +5035,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5097,13 +5142,13 @@
         <v>88909</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="H4" s="7">
         <v>88</v>
@@ -5112,13 +5157,13 @@
         <v>84963</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>173</v>
@@ -5127,13 +5172,13 @@
         <v>173872</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>181</v>
+        <v>338</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5193,13 @@
         <v>20197</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -5163,13 +5208,13 @@
         <v>15875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>343</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -5178,13 +5223,13 @@
         <v>36072</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5244,13 @@
         <v>7440</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -5214,13 +5259,13 @@
         <v>12522</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -5229,13 +5274,13 @@
         <v>19963</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>349</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,13 +5348,13 @@
         <v>480993</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>420</v>
@@ -5318,13 +5363,13 @@
         <v>417452</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="M8" s="7">
         <v>881</v>
@@ -5333,13 +5378,13 @@
         <v>898445</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>282</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5399,13 @@
         <v>52377</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -5369,13 +5414,13 @@
         <v>87625</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="M9" s="7">
         <v>134</v>
@@ -5384,13 +5429,13 @@
         <v>140003</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>138</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5450,13 @@
         <v>24884</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -5420,13 +5465,13 @@
         <v>54402</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -5435,13 +5480,13 @@
         <v>79286</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,7 +5542,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5509,13 +5554,13 @@
         <v>876008</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="H12" s="7">
         <v>762</v>
@@ -5524,13 +5569,13 @@
         <v>790167</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="M12" s="7">
         <v>1567</v>
@@ -5539,13 +5584,13 @@
         <v>1666175</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5605,13 @@
         <v>105435</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -5575,13 +5620,13 @@
         <v>160081</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>243</v>
@@ -5590,13 +5635,13 @@
         <v>265516</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5656,13 @@
         <v>40988</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>77</v>
@@ -5626,13 +5671,13 @@
         <v>92665</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>118</v>
@@ -5641,13 +5686,13 @@
         <v>133653</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,7 +5748,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5715,13 +5760,13 @@
         <v>653527</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>589</v>
@@ -5730,13 +5775,13 @@
         <v>616183</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>1186</v>
@@ -5745,13 +5790,13 @@
         <v>1269710</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,13 +5811,13 @@
         <v>76189</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -5781,13 +5826,13 @@
         <v>105917</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M17" s="7">
         <v>162</v>
@@ -5796,13 +5841,13 @@
         <v>182106</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +5862,13 @@
         <v>29836</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H18" s="7">
         <v>54</v>
@@ -5832,13 +5877,13 @@
         <v>62911</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>425</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>421</v>
+        <v>51</v>
       </c>
       <c r="M18" s="7">
         <v>84</v>
@@ -5847,13 +5892,13 @@
         <v>92747</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5966,13 @@
         <v>802932</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="H20" s="7">
         <v>779</v>
@@ -5936,13 +5981,13 @@
         <v>827106</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M20" s="7">
         <v>1574</v>
@@ -5951,13 +5996,13 @@
         <v>1630038</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>259</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,13 +6017,13 @@
         <v>84317</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>262</v>
+        <v>438</v>
       </c>
       <c r="H21" s="7">
         <v>106</v>
@@ -5987,13 +6032,13 @@
         <v>123644</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>439</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>435</v>
+        <v>225</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M21" s="7">
         <v>193</v>
@@ -6002,13 +6047,13 @@
         <v>207962</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>105</v>
+        <v>441</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +6068,13 @@
         <v>50318</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>443</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -6038,13 +6083,13 @@
         <v>93028</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>440</v>
+        <v>172</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="M22" s="7">
         <v>124</v>
@@ -6053,13 +6098,13 @@
         <v>143346</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,13 +6172,13 @@
         <v>2902369</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>446</v>
+        <v>50</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H24" s="7">
         <v>2638</v>
@@ -6142,13 +6187,13 @@
         <v>2735870</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="M24" s="7">
         <v>5381</v>
@@ -6157,13 +6202,13 @@
         <v>5638240</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,13 +6223,13 @@
         <v>338515</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>456</v>
+        <v>401</v>
       </c>
       <c r="H25" s="7">
         <v>435</v>
@@ -6193,13 +6238,13 @@
         <v>493143</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M25" s="7">
         <v>768</v>
@@ -6208,13 +6253,13 @@
         <v>831659</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>460</v>
+        <v>133</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>363</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6274,13 @@
         <v>153465</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="H26" s="7">
         <v>265</v>
@@ -6244,13 +6289,13 @@
         <v>315528</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>466</v>
+        <v>197</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M26" s="7">
         <v>420</v>
@@ -6259,13 +6304,13 @@
         <v>468994</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>469</v>
+        <v>425</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,7 +6366,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6342,7 +6387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D611B867-C9FA-4B0A-9F5A-4E8DCCDDA62A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC10165A-5794-4E39-BEA9-6F712C7D9189}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6359,7 +6404,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6466,13 +6511,13 @@
         <v>76280</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H4" s="7">
         <v>159</v>
@@ -6481,13 +6526,13 @@
         <v>94470</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M4" s="7">
         <v>246</v>
@@ -6496,13 +6541,13 @@
         <v>170751</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6517,13 +6562,13 @@
         <v>19279</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>372</v>
+        <v>483</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H5" s="7">
         <v>50</v>
@@ -6532,13 +6577,13 @@
         <v>21203</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M5" s="7">
         <v>72</v>
@@ -6547,13 +6592,13 @@
         <v>40482</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>489</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,13 +6613,13 @@
         <v>6423</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>238</v>
+        <v>439</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -6583,13 +6628,13 @@
         <v>15059</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -6598,13 +6643,13 @@
         <v>21483</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,13 +6717,13 @@
         <v>461491</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>496</v>
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>497</v>
+        <v>339</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H8" s="7">
         <v>732</v>
@@ -6687,13 +6732,13 @@
         <v>491787</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>406</v>
+        <v>502</v>
       </c>
       <c r="M8" s="7">
         <v>1227</v>
@@ -6705,10 +6750,10 @@
         <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6723,13 +6768,13 @@
         <v>52239</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>502</v>
+        <v>85</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -6738,13 +6783,13 @@
         <v>77366</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="M9" s="7">
         <v>230</v>
@@ -6753,13 +6798,13 @@
         <v>129605</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,13 +6819,13 @@
         <v>36094</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="H10" s="7">
         <v>107</v>
@@ -6789,13 +6834,13 @@
         <v>50813</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>515</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="M10" s="7">
         <v>153</v>
@@ -6804,13 +6849,13 @@
         <v>86907</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6866,7 +6911,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6878,13 +6923,13 @@
         <v>865023</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>515</v>
+        <v>43</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="H12" s="7">
         <v>1105</v>
@@ -6893,13 +6938,13 @@
         <v>817943</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="M12" s="7">
         <v>1923</v>
@@ -6908,13 +6953,13 @@
         <v>1682966</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,13 +6974,13 @@
         <v>138275</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>276</v>
@@ -6944,13 +6989,13 @@
         <v>163346</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>316</v>
+        <v>534</v>
       </c>
       <c r="M13" s="7">
         <v>374</v>
@@ -6959,13 +7004,13 @@
         <v>301621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>372</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,13 +7025,13 @@
         <v>35950</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="H14" s="7">
         <v>135</v>
@@ -6995,13 +7040,13 @@
         <v>78185</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>534</v>
+        <v>471</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>469</v>
+        <v>540</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="M14" s="7">
         <v>183</v>
@@ -7010,13 +7055,13 @@
         <v>114135</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7072,7 +7117,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7084,13 +7129,13 @@
         <v>594066</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>539</v>
+        <v>47</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>540</v>
+        <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>252</v>
+        <v>545</v>
       </c>
       <c r="H16" s="7">
         <v>775</v>
@@ -7099,13 +7144,13 @@
         <v>703217</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="M16" s="7">
         <v>1308</v>
@@ -7114,13 +7159,13 @@
         <v>1297283</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,13 +7180,13 @@
         <v>100187</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>552</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -7150,13 +7195,13 @@
         <v>115603</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>555</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>556</v>
       </c>
       <c r="M17" s="7">
         <v>294</v>
@@ -7165,13 +7210,13 @@
         <v>215789</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7231,13 @@
         <v>33701</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>342</v>
+        <v>562</v>
       </c>
       <c r="H18" s="7">
         <v>85</v>
@@ -7201,13 +7246,13 @@
         <v>55551</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M18" s="7">
         <v>120</v>
@@ -7216,13 +7261,13 @@
         <v>89252</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>565</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>64</v>
+        <v>566</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>554</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7290,13 +7335,13 @@
         <v>815951</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="H20" s="7">
         <v>1118</v>
@@ -7305,28 +7350,28 @@
         <v>869884</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="M20" s="7">
         <v>1932</v>
       </c>
       <c r="N20" s="7">
-        <v>1685834</v>
+        <v>1685835</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7341,13 +7386,13 @@
         <v>99765</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="H21" s="7">
         <v>272</v>
@@ -7356,13 +7401,13 @@
         <v>171804</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="M21" s="7">
         <v>399</v>
@@ -7371,13 +7416,13 @@
         <v>271569</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7392,13 +7437,13 @@
         <v>49687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>572</v>
+        <v>248</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>573</v>
+        <v>402</v>
       </c>
       <c r="H22" s="7">
         <v>171</v>
@@ -7407,13 +7452,13 @@
         <v>108114</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="M22" s="7">
         <v>236</v>
@@ -7422,13 +7467,13 @@
         <v>157801</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>587</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7470,7 +7515,7 @@
         <v>2567</v>
       </c>
       <c r="N23" s="7">
-        <v>2115204</v>
+        <v>2115205</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -7496,13 +7541,13 @@
         <v>2812811</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="H24" s="7">
         <v>3889</v>
@@ -7511,13 +7556,13 @@
         <v>2977301</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>580</v>
+        <v>211</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="M24" s="7">
         <v>6636</v>
@@ -7526,13 +7571,13 @@
         <v>5790112</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7547,13 +7592,13 @@
         <v>409744</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>83</v>
+        <v>596</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="H25" s="7">
         <v>944</v>
@@ -7562,13 +7607,13 @@
         <v>549323</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>136</v>
+        <v>599</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="M25" s="7">
         <v>1369</v>
@@ -7577,13 +7622,13 @@
         <v>959067</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>386</v>
+        <v>601</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7598,13 +7643,13 @@
         <v>161855</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>532</v>
@@ -7613,13 +7658,13 @@
         <v>307723</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>244</v>
+        <v>606</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>593</v>
+        <v>327</v>
       </c>
       <c r="M26" s="7">
         <v>735</v>
@@ -7628,13 +7673,13 @@
         <v>469578</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>90</v>
+        <v>607</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>322</v>
+        <v>608</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7690,7 +7735,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0802-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P0802-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC9A55B2-4285-4354-B289-9A5C3E06F991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15FCAC9B-72BE-45DB-970B-18FC04BA7436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D40426DF-C6CC-44FB-89CD-8D2BBFB53CE8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D657D09F-B030-43F8-9A2E-31A5AABD2130}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="616">
   <si>
     <t>Población según limitación a subir varios pisos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>NO, NO LIMITA NADA</t>
@@ -77,1789 +77,1807 @@
     <t>87,04%</t>
   </si>
   <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>SI, LIMITA UN POCO</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>SI, LIMITA MUCHO</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>SI, LIMITA UN POCO</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
   </si>
   <si>
     <t>16,13%</t>
   </si>
   <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>SI, LIMITA MUCHO</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
   </si>
   <si>
     <t>83,24%</t>
   </si>
   <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
   </si>
   <si>
     <t>79,7%</t>
   </si>
   <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
   </si>
   <si>
     <t>77,65%</t>
   </si>
   <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
     <t>76,31%</t>
   </si>
   <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
   </si>
   <si>
     <t>8,74%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
   </si>
   <si>
     <t>6,5%</t>
@@ -2280,7 +2298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F70AD25-4675-4CA6-A9D5-DD89B27885FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4AE274-7A8B-4D29-8C43-E3CE0FAD8941}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3052,13 +3070,13 @@
         <v>1087166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3091,13 @@
         <v>79435</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>114</v>
@@ -3088,13 +3106,13 @@
         <v>110295</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>191</v>
@@ -3103,13 +3121,13 @@
         <v>189730</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3142,13 @@
         <v>25736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -3139,13 +3157,13 @@
         <v>59718</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>85</v>
@@ -3154,13 +3172,13 @@
         <v>85454</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,7 +3234,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3228,13 +3246,13 @@
         <v>811193</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>775</v>
@@ -3243,13 +3261,13 @@
         <v>803012</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>1625</v>
@@ -3258,13 +3276,13 @@
         <v>1614205</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3297,13 @@
         <v>94128</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>153</v>
@@ -3294,13 +3312,13 @@
         <v>162818</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>257</v>
@@ -3309,13 +3327,13 @@
         <v>256946</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,13 +3348,13 @@
         <v>36901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -3345,13 +3363,13 @@
         <v>72782</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -3360,13 +3378,13 @@
         <v>109683</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,16 +3449,16 @@
         <v>2747</v>
       </c>
       <c r="D24" s="7">
-        <v>2820228</v>
+        <v>2820227</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>2538</v>
@@ -3449,13 +3467,13 @@
         <v>2593600</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>5285</v>
@@ -3464,13 +3482,13 @@
         <v>5413828</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3503,13 @@
         <v>335311</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>556</v>
@@ -3500,13 +3518,13 @@
         <v>572074</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>900</v>
@@ -3515,13 +3533,13 @@
         <v>907384</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3554,13 @@
         <v>121005</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>203</v>
@@ -3551,13 +3569,13 @@
         <v>213524</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>326</v>
@@ -3566,13 +3584,13 @@
         <v>334529</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,7 +3602,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3628,7 +3646,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3649,7 +3667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E68B90A-A65A-4DC8-A562-529BC90A7B9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391741F4-DC78-423A-B9B1-56A811968B87}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3666,7 +3684,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3773,13 +3791,13 @@
         <v>97852</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H4" s="7">
         <v>67</v>
@@ -3788,13 +3806,13 @@
         <v>75575</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>168</v>
@@ -3803,13 +3821,13 @@
         <v>173426</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3842,13 @@
         <v>13524</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -3839,13 +3857,13 @@
         <v>19676</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -3854,13 +3872,13 @@
         <v>33200</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3893,13 @@
         <v>4389</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -3890,13 +3908,13 @@
         <v>16654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M6" s="7">
         <v>20</v>
@@ -3905,13 +3923,13 @@
         <v>21043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3997,13 @@
         <v>491089</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>409</v>
@@ -3994,13 +4012,13 @@
         <v>434200</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>874</v>
@@ -4009,13 +4027,13 @@
         <v>925289</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4048,13 @@
         <v>64470</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H9" s="7">
         <v>88</v>
@@ -4045,13 +4063,13 @@
         <v>93825</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M9" s="7">
         <v>146</v>
@@ -4060,13 +4078,13 @@
         <v>158295</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4099,13 @@
         <v>32145</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -4096,13 +4114,13 @@
         <v>57120</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -4111,13 +4129,13 @@
         <v>89265</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4203,13 @@
         <v>850650</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H12" s="7">
         <v>700</v>
@@ -4200,13 +4218,13 @@
         <v>769676</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M12" s="7">
         <v>1485</v>
@@ -4215,13 +4233,13 @@
         <v>1620325</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4254,13 @@
         <v>111976</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -4251,13 +4269,13 @@
         <v>152760</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
         <v>242</v>
@@ -4266,13 +4284,13 @@
         <v>264737</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4305,13 @@
         <v>55321</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>172</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
         <v>99</v>
@@ -4302,13 +4320,13 @@
         <v>108661</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>148</v>
@@ -4317,13 +4335,13 @@
         <v>163982</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4409,13 @@
         <v>662733</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H16" s="7">
         <v>542</v>
@@ -4406,13 +4424,13 @@
         <v>597447</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>1148</v>
@@ -4421,13 +4439,13 @@
         <v>1260179</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4460,13 @@
         <v>62404</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
@@ -4457,13 +4475,13 @@
         <v>106427</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
         <v>156</v>
@@ -4472,13 +4490,13 @@
         <v>168832</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,10 +4514,10 @@
         <v>37</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H18" s="7">
         <v>64</v>
@@ -4508,13 +4526,13 @@
         <v>73300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -4523,13 +4541,13 @@
         <v>105786</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,7 +4603,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4597,13 +4615,13 @@
         <v>787771</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H20" s="7">
         <v>732</v>
@@ -4612,13 +4630,13 @@
         <v>764610</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M20" s="7">
         <v>1497</v>
@@ -4627,13 +4645,13 @@
         <v>1552381</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4666,13 @@
         <v>106877</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H21" s="7">
         <v>183</v>
@@ -4663,13 +4681,13 @@
         <v>195707</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M21" s="7">
         <v>280</v>
@@ -4678,13 +4696,13 @@
         <v>302584</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>295</v>
+        <v>166</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4717,13 @@
         <v>49170</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H22" s="7">
         <v>88</v>
@@ -4714,13 +4732,13 @@
         <v>91584</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M22" s="7">
         <v>133</v>
@@ -4729,13 +4747,13 @@
         <v>140754</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,7 +4821,7 @@
         <v>2890095</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>306</v>
+        <v>19</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>307</v>
@@ -4836,10 +4854,10 @@
         <v>312</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +4872,13 @@
         <v>359252</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H25" s="7">
         <v>527</v>
@@ -4869,13 +4887,13 @@
         <v>568396</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M25" s="7">
         <v>857</v>
@@ -4884,13 +4902,13 @@
         <v>927648</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,13 +4923,13 @@
         <v>173511</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H26" s="7">
         <v>320</v>
@@ -4920,13 +4938,13 @@
         <v>347319</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M26" s="7">
         <v>474</v>
@@ -4935,13 +4953,13 @@
         <v>520830</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,7 +5015,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5018,7 +5036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73604B7A-FB44-4C1D-8FD0-BE7396FF1459}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F4136E-700F-412F-8694-516AA7507DD8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5035,7 +5053,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5142,13 +5160,13 @@
         <v>88909</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H4" s="7">
         <v>88</v>
@@ -5208,13 +5226,13 @@
         <v>15875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>215</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -5223,13 +5241,13 @@
         <v>36072</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5262,13 @@
         <v>7440</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -5259,13 +5277,13 @@
         <v>12522</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -5274,13 +5292,13 @@
         <v>19963</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>354</v>
+        <v>148</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>222</v>
+        <v>355</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5366,13 @@
         <v>480993</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>420</v>
@@ -5363,13 +5381,13 @@
         <v>417452</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M8" s="7">
         <v>881</v>
@@ -5378,13 +5396,13 @@
         <v>898445</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,13 +5417,13 @@
         <v>52377</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -5432,10 +5450,10 @@
         <v>371</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,13 +5468,13 @@
         <v>24884</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -5465,13 +5483,13 @@
         <v>54402</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -5480,13 +5498,13 @@
         <v>79286</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,13 +5572,13 @@
         <v>876008</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>308</v>
+        <v>383</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H12" s="7">
         <v>762</v>
@@ -5569,13 +5587,13 @@
         <v>790167</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="M12" s="7">
         <v>1567</v>
@@ -5584,13 +5602,13 @@
         <v>1666175</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,13 +5623,13 @@
         <v>105435</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -5620,13 +5638,13 @@
         <v>160081</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M13" s="7">
         <v>243</v>
@@ -5635,13 +5653,13 @@
         <v>265516</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>246</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +5674,13 @@
         <v>40988</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>402</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="H14" s="7">
         <v>77</v>
@@ -5671,13 +5689,13 @@
         <v>92665</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>118</v>
@@ -5686,13 +5704,13 @@
         <v>133653</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5778,13 @@
         <v>653527</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H16" s="7">
         <v>589</v>
@@ -5775,13 +5793,13 @@
         <v>616183</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M16" s="7">
         <v>1186</v>
@@ -5790,13 +5808,13 @@
         <v>1269710</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5829,13 @@
         <v>76189</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>419</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -5826,13 +5844,13 @@
         <v>105917</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>416</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>162</v>
@@ -5841,13 +5859,13 @@
         <v>182106</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>58</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5880,13 @@
         <v>29836</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="H18" s="7">
         <v>54</v>
@@ -5877,13 +5895,13 @@
         <v>62911</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>51</v>
+        <v>430</v>
       </c>
       <c r="M18" s="7">
         <v>84</v>
@@ -5892,13 +5910,13 @@
         <v>92747</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>426</v>
+        <v>305</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,7 +5972,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5966,13 +5984,13 @@
         <v>802932</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="H20" s="7">
         <v>779</v>
@@ -5981,13 +5999,13 @@
         <v>827106</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="M20" s="7">
         <v>1574</v>
@@ -5996,13 +6014,13 @@
         <v>1630038</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6035,13 @@
         <v>84317</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H21" s="7">
         <v>106</v>
@@ -6032,13 +6050,13 @@
         <v>123644</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>225</v>
+        <v>446</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="M21" s="7">
         <v>193</v>
@@ -6047,13 +6065,13 @@
         <v>207962</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6086,13 @@
         <v>50318</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -6083,13 +6101,13 @@
         <v>93028</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>172</v>
+        <v>454</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="M22" s="7">
         <v>124</v>
@@ -6098,13 +6116,13 @@
         <v>143346</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>449</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6190,13 @@
         <v>2902369</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>50</v>
+        <v>459</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="H24" s="7">
         <v>2638</v>
@@ -6187,13 +6205,13 @@
         <v>2735870</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="M24" s="7">
         <v>5381</v>
@@ -6202,13 +6220,13 @@
         <v>5638240</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6241,13 @@
         <v>338515</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="H25" s="7">
         <v>435</v>
@@ -6238,13 +6256,13 @@
         <v>493143</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>460</v>
+        <v>216</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M25" s="7">
         <v>768</v>
@@ -6253,13 +6271,13 @@
         <v>831659</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>470</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6292,13 @@
         <v>153465</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="H26" s="7">
         <v>265</v>
@@ -6289,13 +6307,13 @@
         <v>315528</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>197</v>
+        <v>477</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M26" s="7">
         <v>420</v>
@@ -6304,13 +6322,13 @@
         <v>468994</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,7 +6384,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6387,7 +6405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC10165A-5794-4E39-BEA9-6F712C7D9189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17C5286-BC96-40B5-AB60-74E1F1E04360}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6404,7 +6422,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6511,13 +6529,13 @@
         <v>76280</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="H4" s="7">
         <v>159</v>
@@ -6526,13 +6544,13 @@
         <v>94470</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="M4" s="7">
         <v>246</v>
@@ -6541,13 +6559,13 @@
         <v>170751</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6562,13 +6580,13 @@
         <v>19279</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="H5" s="7">
         <v>50</v>
@@ -6577,13 +6595,13 @@
         <v>21203</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="M5" s="7">
         <v>72</v>
@@ -6592,13 +6610,13 @@
         <v>40482</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>488</v>
+        <v>318</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,13 +6631,13 @@
         <v>6423</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -6628,13 +6646,13 @@
         <v>15059</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -6643,13 +6661,13 @@
         <v>21483</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,13 +6735,13 @@
         <v>461491</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>123</v>
+        <v>507</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>339</v>
+        <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="H8" s="7">
         <v>732</v>
@@ -6732,13 +6750,13 @@
         <v>491787</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="M8" s="7">
         <v>1227</v>
@@ -6747,13 +6765,13 @@
         <v>953278</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,13 +6786,13 @@
         <v>52239</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>85</v>
+        <v>515</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -6783,13 +6801,13 @@
         <v>77366</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>506</v>
+        <v>379</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="M9" s="7">
         <v>230</v>
@@ -6798,13 +6816,13 @@
         <v>129605</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6819,13 +6837,13 @@
         <v>36094</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="H10" s="7">
         <v>107</v>
@@ -6834,13 +6852,13 @@
         <v>50813</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="M10" s="7">
         <v>153</v>
@@ -6849,13 +6867,13 @@
         <v>86907</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>520</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6923,13 +6941,13 @@
         <v>865023</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>529</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="H12" s="7">
         <v>1105</v>
@@ -6938,13 +6956,13 @@
         <v>817943</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="M12" s="7">
         <v>1923</v>
@@ -6953,13 +6971,13 @@
         <v>1682966</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,13 +6992,13 @@
         <v>138275</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="H13" s="7">
         <v>276</v>
@@ -6989,13 +7007,13 @@
         <v>163346</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="M13" s="7">
         <v>374</v>
@@ -7004,13 +7022,13 @@
         <v>301621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>372</v>
+        <v>543</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7025,13 +7043,13 @@
         <v>35950</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="H14" s="7">
         <v>135</v>
@@ -7040,13 +7058,13 @@
         <v>78185</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>471</v>
+        <v>549</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="M14" s="7">
         <v>183</v>
@@ -7055,13 +7073,13 @@
         <v>114135</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7129,13 +7147,13 @@
         <v>594066</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>555</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="H16" s="7">
         <v>775</v>
@@ -7144,13 +7162,13 @@
         <v>703217</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="M16" s="7">
         <v>1308</v>
@@ -7159,13 +7177,13 @@
         <v>1297283</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7183,10 +7201,10 @@
         <v>57</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -7195,13 +7213,13 @@
         <v>115603</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>554</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="M17" s="7">
         <v>294</v>
@@ -7210,13 +7228,13 @@
         <v>215789</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7231,13 +7249,13 @@
         <v>33701</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="H18" s="7">
         <v>85</v>
@@ -7246,13 +7264,13 @@
         <v>55551</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>563</v>
+        <v>451</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="M18" s="7">
         <v>120</v>
@@ -7261,13 +7279,13 @@
         <v>89252</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>565</v>
+        <v>68</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>253</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7323,7 +7341,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7335,13 +7353,13 @@
         <v>815951</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>567</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="H20" s="7">
         <v>1118</v>
@@ -7350,13 +7368,13 @@
         <v>869884</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="M20" s="7">
         <v>1932</v>
@@ -7365,13 +7383,13 @@
         <v>1685835</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>49</v>
+        <v>580</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7386,13 +7404,13 @@
         <v>99765</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>191</v>
+        <v>423</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="H21" s="7">
         <v>272</v>
@@ -7401,13 +7419,13 @@
         <v>171804</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>579</v>
+        <v>25</v>
       </c>
       <c r="M21" s="7">
         <v>399</v>
@@ -7416,13 +7434,13 @@
         <v>271569</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7437,13 +7455,13 @@
         <v>49687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>248</v>
+        <v>591</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H22" s="7">
         <v>171</v>
@@ -7452,13 +7470,13 @@
         <v>108114</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="M22" s="7">
         <v>236</v>
@@ -7467,13 +7485,13 @@
         <v>157801</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7541,13 +7559,13 @@
         <v>2812811</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>589</v>
+        <v>43</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="H24" s="7">
         <v>3889</v>
@@ -7556,13 +7574,13 @@
         <v>2977301</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>103</v>
+        <v>599</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>211</v>
+        <v>600</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>592</v>
+        <v>415</v>
       </c>
       <c r="M24" s="7">
         <v>6636</v>
@@ -7571,13 +7589,13 @@
         <v>5790112</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>595</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7592,13 +7610,13 @@
         <v>409744</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>579</v>
+        <v>25</v>
       </c>
       <c r="H25" s="7">
         <v>944</v>
@@ -7607,13 +7625,13 @@
         <v>549323</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>600</v>
+        <v>222</v>
       </c>
       <c r="M25" s="7">
         <v>1369</v>
@@ -7622,13 +7640,13 @@
         <v>959067</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,13 +7661,13 @@
         <v>161855</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>604</v>
+        <v>251</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>532</v>
@@ -7658,13 +7676,13 @@
         <v>307723</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>327</v>
+        <v>612</v>
       </c>
       <c r="M26" s="7">
         <v>735</v>
@@ -7673,13 +7691,13 @@
         <v>469578</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7735,7 +7753,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0802-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P0802-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15FCAC9B-72BE-45DB-970B-18FC04BA7436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29A743DE-98FD-4055-8E4E-792CCF6EE6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D657D09F-B030-43F8-9A2E-31A5AABD2130}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{460C26EE-A6A9-4E0A-8AF5-41158AB40276}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="595">
   <si>
     <t>Población según limitación a subir varios pisos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,1822 +71,1759 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>NO, NO LIMITA NADA</t>
+    <t>No, no limita nada</t>
   </si>
   <si>
     <t>87,04%</t>
   </si>
   <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
   </si>
   <si>
     <t>70,89%</t>
   </si>
   <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
   </si>
   <si>
     <t>79,06%</t>
   </si>
   <si>
-    <t>73,17%</t>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>Sí, limita un poco</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>Sí, limita mucho</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>84,44%</t>
   </si>
   <si>
-    <t>SI, LIMITA UN POCO</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
   </si>
   <si>
     <t>22,14%</t>
   </si>
   <si>
-    <t>SI, LIMITA MUCHO</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
   </si>
   <si>
     <t>83,11%</t>
   </si>
   <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
   </si>
   <si>
     <t>8,79%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>7,06%</t>
   </si>
 </sst>
 </file>
@@ -2298,7 +2235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4AE274-7A8B-4D29-8C43-E3CE0FAD8941}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0312A35-2355-4F74-AA9E-922AA66854CC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2661,10 +2598,10 @@
         <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,13 +2616,13 @@
         <v>59933</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -2694,13 +2631,13 @@
         <v>98940</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>161</v>
@@ -2709,13 +2646,13 @@
         <v>158873</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,13 +2667,13 @@
         <v>20621</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -2745,13 +2682,13 @@
         <v>27919</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -2760,13 +2697,13 @@
         <v>48540</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,7 +2759,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2837,10 +2774,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>705</v>
@@ -2849,13 +2786,13 @@
         <v>748086</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>1479</v>
@@ -2864,13 +2801,13 @@
         <v>1585273</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2822,13 @@
         <v>91025</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>160</v>
@@ -2900,13 +2837,13 @@
         <v>172827</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>250</v>
@@ -2915,13 +2852,13 @@
         <v>263852</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2873,13 @@
         <v>33588</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -2951,13 +2888,13 @@
         <v>47480</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -2966,13 +2903,13 @@
         <v>81068</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,7 +2965,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3040,13 +2977,13 @@
         <v>573338</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>523</v>
@@ -3055,13 +2992,13 @@
         <v>513828</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>1061</v>
@@ -3070,13 +3007,13 @@
         <v>1087166</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3028,13 @@
         <v>79435</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>114</v>
@@ -3106,13 +3043,13 @@
         <v>110295</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>191</v>
@@ -3121,13 +3058,13 @@
         <v>189730</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3079,13 @@
         <v>25736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -3157,13 +3094,13 @@
         <v>59718</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>85</v>
@@ -3172,13 +3109,13 @@
         <v>85454</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,7 +3171,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3246,13 +3183,13 @@
         <v>811193</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>775</v>
@@ -3261,13 +3198,13 @@
         <v>803012</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>1625</v>
@@ -3276,13 +3213,13 @@
         <v>1614205</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3234,13 @@
         <v>94128</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>153</v>
@@ -3312,13 +3249,13 @@
         <v>162818</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>257</v>
@@ -3327,13 +3264,13 @@
         <v>256946</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,13 +3285,13 @@
         <v>36901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -3363,13 +3300,13 @@
         <v>72782</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -3378,13 +3315,13 @@
         <v>109683</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,16 +3386,16 @@
         <v>2747</v>
       </c>
       <c r="D24" s="7">
-        <v>2820227</v>
+        <v>2820228</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>2538</v>
@@ -3467,28 +3404,28 @@
         <v>2593600</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>5285</v>
       </c>
       <c r="N24" s="7">
-        <v>5413828</v>
+        <v>5413827</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3440,13 @@
         <v>335311</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>556</v>
@@ -3518,13 +3455,13 @@
         <v>572074</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>900</v>
@@ -3533,13 +3470,13 @@
         <v>907384</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,13 +3491,13 @@
         <v>121005</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>203</v>
@@ -3569,13 +3506,13 @@
         <v>213524</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M26" s="7">
         <v>326</v>
@@ -3584,13 +3521,13 @@
         <v>334529</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,7 +3539,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3632,7 +3569,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3646,7 +3583,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +3604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391741F4-DC78-423A-B9B1-56A811968B87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F697801-7D4E-4BEF-BB0B-F1F2207466E9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3684,7 +3621,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3791,13 +3728,13 @@
         <v>97852</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>67</v>
@@ -3806,13 +3743,13 @@
         <v>75575</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>168</v>
@@ -3821,13 +3758,13 @@
         <v>173426</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,13 +3779,13 @@
         <v>13524</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -3857,13 +3794,13 @@
         <v>19676</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -3872,13 +3809,13 @@
         <v>33200</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3830,13 @@
         <v>4389</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -3908,13 +3845,13 @@
         <v>16654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M6" s="7">
         <v>20</v>
@@ -3923,13 +3860,13 @@
         <v>21043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +3934,13 @@
         <v>491089</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H8" s="7">
         <v>409</v>
@@ -4012,13 +3949,13 @@
         <v>434200</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M8" s="7">
         <v>874</v>
@@ -4027,13 +3964,13 @@
         <v>925289</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,13 +3985,13 @@
         <v>64470</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H9" s="7">
         <v>88</v>
@@ -4063,13 +4000,13 @@
         <v>93825</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M9" s="7">
         <v>146</v>
@@ -4078,13 +4015,13 @@
         <v>158295</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4036,13 @@
         <v>32145</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -4114,13 +4051,13 @@
         <v>57120</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -4129,13 +4066,13 @@
         <v>89265</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,7 +4128,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4203,13 +4140,13 @@
         <v>850650</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H12" s="7">
         <v>700</v>
@@ -4218,13 +4155,13 @@
         <v>769676</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M12" s="7">
         <v>1485</v>
@@ -4233,13 +4170,13 @@
         <v>1620325</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,13 +4191,13 @@
         <v>111976</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -4269,13 +4206,13 @@
         <v>152760</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>242</v>
@@ -4284,13 +4221,13 @@
         <v>264737</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4242,13 @@
         <v>55321</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H14" s="7">
         <v>99</v>
@@ -4320,13 +4257,13 @@
         <v>108661</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M14" s="7">
         <v>148</v>
@@ -4335,13 +4272,13 @@
         <v>163982</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,7 +4334,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4409,13 +4346,13 @@
         <v>662733</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
         <v>542</v>
@@ -4424,13 +4361,13 @@
         <v>597447</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
         <v>1148</v>
@@ -4439,13 +4376,13 @@
         <v>1260179</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4397,13 @@
         <v>62404</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
@@ -4475,13 +4412,13 @@
         <v>106427</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>156</v>
@@ -4490,13 +4427,13 @@
         <v>168832</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,10 +4451,10 @@
         <v>37</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H18" s="7">
         <v>64</v>
@@ -4526,13 +4463,13 @@
         <v>73300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -4541,13 +4478,13 @@
         <v>105786</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,7 +4540,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4615,13 +4552,13 @@
         <v>787771</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H20" s="7">
         <v>732</v>
@@ -4630,13 +4567,13 @@
         <v>764610</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M20" s="7">
         <v>1497</v>
@@ -4645,13 +4582,13 @@
         <v>1552381</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4603,13 @@
         <v>106877</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H21" s="7">
         <v>183</v>
@@ -4681,13 +4618,13 @@
         <v>195707</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M21" s="7">
         <v>280</v>
@@ -4696,13 +4633,13 @@
         <v>302584</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>166</v>
+        <v>292</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4654,13 @@
         <v>49170</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>294</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H22" s="7">
         <v>88</v>
@@ -4732,13 +4669,13 @@
         <v>91584</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M22" s="7">
         <v>133</v>
@@ -4747,13 +4684,13 @@
         <v>140754</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4758,13 @@
         <v>2890095</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>19</v>
+        <v>303</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>307</v>
+        <v>130</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H24" s="7">
         <v>2450</v>
@@ -4836,13 +4773,13 @@
         <v>2641507</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M24" s="7">
         <v>5172</v>
@@ -4851,13 +4788,13 @@
         <v>5531602</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +4809,13 @@
         <v>359252</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H25" s="7">
         <v>527</v>
@@ -4887,13 +4824,13 @@
         <v>568396</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>199</v>
+        <v>315</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M25" s="7">
         <v>857</v>
@@ -4902,13 +4839,13 @@
         <v>927648</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4860,13 @@
         <v>173511</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H26" s="7">
         <v>320</v>
@@ -4938,13 +4875,13 @@
         <v>347319</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M26" s="7">
         <v>474</v>
@@ -4953,13 +4890,13 @@
         <v>520830</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,7 +4952,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5036,7 +4973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F4136E-700F-412F-8694-516AA7507DD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346FD347-D578-403F-AC17-DC88FD6B08DF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5053,7 +4990,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5160,13 +5097,13 @@
         <v>88909</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>88</v>
@@ -5175,13 +5112,13 @@
         <v>84963</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M4" s="7">
         <v>173</v>
@@ -5190,13 +5127,13 @@
         <v>173872</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5148,13 @@
         <v>20197</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -5226,13 +5163,13 @@
         <v>15875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>210</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -5241,13 +5178,13 @@
         <v>36072</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5199,13 @@
         <v>7440</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -5277,13 +5214,13 @@
         <v>12522</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -5292,13 +5229,13 @@
         <v>19963</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>148</v>
+        <v>348</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5303,13 @@
         <v>480993</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>420</v>
@@ -5381,13 +5318,13 @@
         <v>417452</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>881</v>
@@ -5396,13 +5333,13 @@
         <v>898445</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>282</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5354,13 @@
         <v>52377</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -5432,13 +5369,13 @@
         <v>87625</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M9" s="7">
         <v>134</v>
@@ -5447,13 +5384,13 @@
         <v>140003</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>373</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,13 +5405,13 @@
         <v>24884</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -5483,13 +5420,13 @@
         <v>54402</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -5498,13 +5435,13 @@
         <v>79286</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,7 +5497,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5572,13 +5509,13 @@
         <v>876008</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>383</v>
+        <v>304</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="H12" s="7">
         <v>762</v>
@@ -5587,13 +5524,13 @@
         <v>790167</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="M12" s="7">
         <v>1567</v>
@@ -5602,13 +5539,13 @@
         <v>1666175</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,13 +5560,13 @@
         <v>105435</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -5638,13 +5575,13 @@
         <v>160081</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="M13" s="7">
         <v>243</v>
@@ -5653,13 +5590,13 @@
         <v>265516</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5611,13 @@
         <v>40988</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
         <v>77</v>
@@ -5689,13 +5626,13 @@
         <v>92665</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="M14" s="7">
         <v>118</v>
@@ -5704,13 +5641,13 @@
         <v>133653</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>39</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,7 +5703,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5778,13 +5715,13 @@
         <v>653527</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H16" s="7">
         <v>589</v>
@@ -5793,13 +5730,13 @@
         <v>616183</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="M16" s="7">
         <v>1186</v>
@@ -5808,13 +5745,13 @@
         <v>1269710</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5766,13 @@
         <v>76189</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -5844,13 +5781,13 @@
         <v>105917</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>162</v>
@@ -5859,13 +5796,13 @@
         <v>182106</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>57</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5817,13 @@
         <v>29836</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="H18" s="7">
         <v>54</v>
@@ -5895,13 +5832,13 @@
         <v>62911</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>429</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="M18" s="7">
         <v>84</v>
@@ -5910,13 +5847,13 @@
         <v>92747</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,7 +5909,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5984,13 +5921,13 @@
         <v>802932</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H20" s="7">
         <v>779</v>
@@ -5999,13 +5936,13 @@
         <v>827106</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="M20" s="7">
         <v>1574</v>
@@ -6014,13 +5951,13 @@
         <v>1630038</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>441</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +5972,13 @@
         <v>84317</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>444</v>
+        <v>262</v>
       </c>
       <c r="H21" s="7">
         <v>106</v>
@@ -6050,13 +5987,13 @@
         <v>123644</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>445</v>
+        <v>133</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="M21" s="7">
         <v>193</v>
@@ -6065,13 +6002,13 @@
         <v>207962</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>448</v>
+        <v>105</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6023,13 @@
         <v>50318</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>450</v>
+        <v>398</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>451</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -6101,13 +6038,13 @@
         <v>93028</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="M22" s="7">
         <v>124</v>
@@ -6116,13 +6053,13 @@
         <v>143346</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6127,13 @@
         <v>2902369</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="H24" s="7">
         <v>2638</v>
@@ -6205,13 +6142,13 @@
         <v>2735870</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="M24" s="7">
         <v>5381</v>
@@ -6220,13 +6157,13 @@
         <v>5638240</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6178,13 @@
         <v>338515</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="H25" s="7">
         <v>435</v>
@@ -6256,13 +6193,13 @@
         <v>493143</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>216</v>
+        <v>457</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="M25" s="7">
         <v>768</v>
@@ -6271,13 +6208,13 @@
         <v>831659</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>472</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6229,13 @@
         <v>153465</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="H26" s="7">
         <v>265</v>
@@ -6307,13 +6244,13 @@
         <v>315528</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M26" s="7">
         <v>420</v>
@@ -6322,13 +6259,13 @@
         <v>468994</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,7 +6321,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6405,7 +6342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17C5286-BC96-40B5-AB60-74E1F1E04360}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8D8955-0D18-42ED-A4B6-5D4756A3610A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6422,7 +6359,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6529,13 +6466,13 @@
         <v>76280</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="H4" s="7">
         <v>159</v>
@@ -6544,13 +6481,13 @@
         <v>94470</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="M4" s="7">
         <v>246</v>
@@ -6559,13 +6496,13 @@
         <v>170751</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,13 +6517,13 @@
         <v>19279</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>492</v>
+        <v>372</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="H5" s="7">
         <v>50</v>
@@ -6595,13 +6532,13 @@
         <v>21203</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="M5" s="7">
         <v>72</v>
@@ -6610,13 +6547,13 @@
         <v>40482</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>318</v>
+        <v>486</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>497</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6568,13 @@
         <v>6423</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>445</v>
+        <v>238</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -6646,13 +6583,13 @@
         <v>15059</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -6661,13 +6598,13 @@
         <v>21483</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,13 +6672,13 @@
         <v>461491</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>497</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H8" s="7">
         <v>732</v>
@@ -6750,13 +6687,13 @@
         <v>491787</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>511</v>
+        <v>406</v>
       </c>
       <c r="M8" s="7">
         <v>1227</v>
@@ -6765,13 +6702,13 @@
         <v>953278</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>513</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6786,13 +6723,13 @@
         <v>52239</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -6801,13 +6738,13 @@
         <v>77366</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="M9" s="7">
         <v>230</v>
@@ -6816,13 +6753,13 @@
         <v>129605</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6837,13 +6774,13 @@
         <v>36094</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="H10" s="7">
         <v>107</v>
@@ -6852,13 +6789,13 @@
         <v>50813</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>524</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="M10" s="7">
         <v>153</v>
@@ -6867,13 +6804,13 @@
         <v>86907</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>527</v>
+        <v>470</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,7 +6866,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6941,13 +6878,13 @@
         <v>865023</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="H12" s="7">
         <v>1105</v>
@@ -6956,13 +6893,13 @@
         <v>817943</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="M12" s="7">
         <v>1923</v>
@@ -6971,13 +6908,13 @@
         <v>1682966</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,13 +6929,13 @@
         <v>138275</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="H13" s="7">
         <v>276</v>
@@ -7007,13 +6944,13 @@
         <v>163346</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>528</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>542</v>
+        <v>316</v>
       </c>
       <c r="M13" s="7">
         <v>374</v>
@@ -7022,13 +6959,13 @@
         <v>301621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>543</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,13 +6980,13 @@
         <v>35950</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="H14" s="7">
         <v>135</v>
@@ -7058,13 +6995,13 @@
         <v>78185</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>550</v>
+        <v>469</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="M14" s="7">
         <v>183</v>
@@ -7073,13 +7010,13 @@
         <v>114135</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,7 +7072,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7147,13 +7084,13 @@
         <v>594066</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>539</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>556</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>775</v>
@@ -7162,13 +7099,13 @@
         <v>703217</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="M16" s="7">
         <v>1308</v>
@@ -7177,13 +7114,13 @@
         <v>1297283</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7198,13 +7135,13 @@
         <v>100187</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>563</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -7213,13 +7150,13 @@
         <v>115603</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>548</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>565</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>566</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>294</v>
@@ -7228,13 +7165,13 @@
         <v>215789</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>569</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,13 +7186,13 @@
         <v>33701</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>570</v>
+        <v>537</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>572</v>
+        <v>342</v>
       </c>
       <c r="H18" s="7">
         <v>85</v>
@@ -7264,13 +7201,13 @@
         <v>55551</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>451</v>
+        <v>552</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="M18" s="7">
         <v>120</v>
@@ -7279,13 +7216,13 @@
         <v>89252</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>574</v>
+        <v>64</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>328</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7341,7 +7278,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7353,13 +7290,13 @@
         <v>815951</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>555</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="H20" s="7">
         <v>1118</v>
@@ -7368,28 +7305,28 @@
         <v>869884</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="M20" s="7">
         <v>1932</v>
       </c>
       <c r="N20" s="7">
-        <v>1685835</v>
+        <v>1685834</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>580</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,13 +7341,13 @@
         <v>99765</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>423</v>
+        <v>187</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="H21" s="7">
         <v>272</v>
@@ -7419,13 +7356,13 @@
         <v>171804</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>25</v>
+        <v>567</v>
       </c>
       <c r="M21" s="7">
         <v>399</v>
@@ -7434,13 +7371,13 @@
         <v>271569</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,13 +7392,13 @@
         <v>49687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>406</v>
+        <v>573</v>
       </c>
       <c r="H22" s="7">
         <v>171</v>
@@ -7470,13 +7407,13 @@
         <v>108114</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="M22" s="7">
         <v>236</v>
@@ -7485,13 +7422,13 @@
         <v>157801</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>595</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>596</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7533,7 +7470,7 @@
         <v>2567</v>
       </c>
       <c r="N23" s="7">
-        <v>2115205</v>
+        <v>2115204</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -7559,13 +7496,13 @@
         <v>2812811</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>43</v>
+        <v>577</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="H24" s="7">
         <v>3889</v>
@@ -7574,13 +7511,13 @@
         <v>2977301</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>599</v>
+        <v>102</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>415</v>
+        <v>581</v>
       </c>
       <c r="M24" s="7">
         <v>6636</v>
@@ -7589,13 +7526,13 @@
         <v>5790112</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>187</v>
+        <v>584</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7610,13 +7547,13 @@
         <v>409744</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>603</v>
+        <v>83</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="H25" s="7">
         <v>944</v>
@@ -7625,13 +7562,13 @@
         <v>549323</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>606</v>
+        <v>136</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>222</v>
+        <v>588</v>
       </c>
       <c r="M25" s="7">
         <v>1369</v>
@@ -7640,13 +7577,13 @@
         <v>959067</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>607</v>
+        <v>386</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7661,13 +7598,13 @@
         <v>161855</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>251</v>
+        <v>591</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="H26" s="7">
         <v>532</v>
@@ -7676,13 +7613,13 @@
         <v>307723</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>611</v>
+        <v>244</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="M26" s="7">
         <v>735</v>
@@ -7691,13 +7628,13 @@
         <v>469578</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>613</v>
+        <v>90</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>614</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7753,7 +7690,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0802-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P0802-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29A743DE-98FD-4055-8E4E-792CCF6EE6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF5D54AC-6946-437F-83B6-8D8BDADBA8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{460C26EE-A6A9-4E0A-8AF5-41158AB40276}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A3766B68-E998-43DE-9148-B4FC568B8F12}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="518">
   <si>
     <t>Población según limitación a subir varios pisos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1762 +68,1531 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No, no limita nada</t>
   </si>
   <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>Sí, limita un poco</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>Sí, limita mucho</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
     <t>87,04%</t>
   </si>
   <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>Sí, limita un poco</t>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>Sí, limita mucho</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
   </si>
 </sst>
 </file>
@@ -2235,8 +2004,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0312A35-2355-4F74-AA9E-922AA66854CC}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DC5DA1-C083-487B-93D8-EE2A84EF8CD5}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2353,10 +2122,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>91</v>
+        <v>585</v>
       </c>
       <c r="D4" s="7">
-        <v>100409</v>
+        <v>598509</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2368,10 +2137,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>91</v>
+        <v>535</v>
       </c>
       <c r="I4" s="7">
-        <v>79937</v>
+        <v>528673</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2383,10 +2152,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>182</v>
+        <v>1120</v>
       </c>
       <c r="N4" s="7">
-        <v>180346</v>
+        <v>1127182</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2404,10 +2173,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D5" s="7">
-        <v>10790</v>
+        <v>70722</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2419,10 +2188,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="I5" s="7">
-        <v>27193</v>
+        <v>126133</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2434,10 +2203,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="N5" s="7">
-        <v>37983</v>
+        <v>196856</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2455,10 +2224,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7">
-        <v>4159</v>
+        <v>24780</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2470,10 +2239,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>5625</v>
+        <v>33545</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2485,10 +2254,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="N6" s="7">
-        <v>9785</v>
+        <v>58325</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2506,10 +2275,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D7" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -2521,10 +2290,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I7" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2536,10 +2305,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N7" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2559,10 +2328,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>494</v>
+        <v>774</v>
       </c>
       <c r="D8" s="7">
-        <v>498100</v>
+        <v>837187</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2574,10 +2343,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>444</v>
+        <v>705</v>
       </c>
       <c r="I8" s="7">
-        <v>448736</v>
+        <v>748086</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2589,19 +2358,19 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>938</v>
+        <v>1479</v>
       </c>
       <c r="N8" s="7">
-        <v>946837</v>
+        <v>1585273</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,49 +2379,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D9" s="7">
-        <v>59933</v>
+        <v>91025</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="I9" s="7">
-        <v>98940</v>
+        <v>172827</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="N9" s="7">
-        <v>158873</v>
+        <v>263852</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,49 +2430,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>20621</v>
+        <v>33588</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>27919</v>
+        <v>47480</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="N10" s="7">
-        <v>48540</v>
+        <v>81068</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,10 +2481,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D11" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2727,10 +2496,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I11" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2742,10 +2511,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N11" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2759,55 +2528,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>774</v>
+        <v>538</v>
       </c>
       <c r="D12" s="7">
-        <v>837187</v>
+        <v>573338</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>705</v>
+        <v>523</v>
       </c>
       <c r="I12" s="7">
-        <v>748086</v>
+        <v>513828</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>1479</v>
+        <v>1061</v>
       </c>
       <c r="N12" s="7">
-        <v>1585273</v>
+        <v>1087166</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,49 +2585,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7">
-        <v>91025</v>
+        <v>79435</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="I13" s="7">
-        <v>172827</v>
+        <v>110295</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="N13" s="7">
-        <v>263852</v>
+        <v>189730</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,49 +2636,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>33588</v>
+        <v>25736</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="7">
+        <v>59</v>
+      </c>
+      <c r="I14" s="7">
+        <v>59718</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="7">
         <v>85</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="7">
-        <v>43</v>
-      </c>
-      <c r="I14" s="7">
-        <v>47480</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M14" s="7">
-        <v>75</v>
-      </c>
       <c r="N14" s="7">
-        <v>81068</v>
+        <v>85454</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,10 +2687,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -2933,10 +2702,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I15" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2948,10 +2717,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N15" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -2965,55 +2734,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>538</v>
+        <v>850</v>
       </c>
       <c r="D16" s="7">
-        <v>573338</v>
+        <v>811193</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
-        <v>523</v>
+        <v>775</v>
       </c>
       <c r="I16" s="7">
-        <v>513828</v>
+        <v>803012</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
-        <v>1061</v>
+        <v>1625</v>
       </c>
       <c r="N16" s="7">
-        <v>1087166</v>
+        <v>1614205</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,49 +2791,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D17" s="7">
-        <v>79435</v>
+        <v>94128</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="I17" s="7">
-        <v>110295</v>
+        <v>162818</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>109</v>
       </c>
       <c r="M17" s="7">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="N17" s="7">
-        <v>189730</v>
+        <v>256946</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,49 +2842,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D18" s="7">
-        <v>25736</v>
+        <v>36901</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I18" s="7">
-        <v>59718</v>
+        <v>72782</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="N18" s="7">
-        <v>85454</v>
+        <v>109683</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,10 +2893,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D19" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -3139,10 +2908,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I19" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3154,10 +2923,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N19" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -3171,16 +2940,16 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>850</v>
+        <v>2747</v>
       </c>
       <c r="D20" s="7">
-        <v>811193</v>
+        <v>2820227</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>122</v>
@@ -3192,10 +2961,10 @@
         <v>124</v>
       </c>
       <c r="H20" s="7">
-        <v>775</v>
+        <v>2538</v>
       </c>
       <c r="I20" s="7">
-        <v>803012</v>
+        <v>2593599</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>125</v>
@@ -3207,10 +2976,10 @@
         <v>127</v>
       </c>
       <c r="M20" s="7">
-        <v>1625</v>
+        <v>5285</v>
       </c>
       <c r="N20" s="7">
-        <v>1614205</v>
+        <v>5413828</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>128</v>
@@ -3228,10 +2997,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>104</v>
+        <v>344</v>
       </c>
       <c r="D21" s="7">
-        <v>94128</v>
+        <v>335311</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>131</v>
@@ -3243,34 +3012,34 @@
         <v>133</v>
       </c>
       <c r="H21" s="7">
-        <v>153</v>
+        <v>556</v>
       </c>
       <c r="I21" s="7">
-        <v>162818</v>
+        <v>572074</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
-        <v>257</v>
+        <v>900</v>
       </c>
       <c r="N21" s="7">
-        <v>256946</v>
+        <v>907384</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,49 +3048,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="D22" s="7">
-        <v>36901</v>
+        <v>121005</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="I22" s="7">
-        <v>72782</v>
+        <v>213524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
-        <v>109</v>
+        <v>326</v>
       </c>
       <c r="N22" s="7">
-        <v>109683</v>
+        <v>334529</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,10 +3099,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -3345,10 +3114,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I23" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3360,10 +3129,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3376,222 +3145,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2747</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2820228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2538</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2593600</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="A24" t="s">
         <v>149</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M24" s="7">
-        <v>5285</v>
-      </c>
-      <c r="N24" s="7">
-        <v>5413827</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>344</v>
-      </c>
-      <c r="D25" s="7">
-        <v>335311</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H25" s="7">
-        <v>556</v>
-      </c>
-      <c r="I25" s="7">
-        <v>572074</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M25" s="7">
-        <v>900</v>
-      </c>
-      <c r="N25" s="7">
-        <v>907384</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>123</v>
-      </c>
-      <c r="D26" s="7">
-        <v>121005</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H26" s="7">
-        <v>203</v>
-      </c>
-      <c r="I26" s="7">
-        <v>213524</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M26" s="7">
-        <v>326</v>
-      </c>
-      <c r="N26" s="7">
-        <v>334529</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>172</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3604,8 +3166,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F697801-7D4E-4BEF-BB0B-F1F2207466E9}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835BD628-DBA6-4365-A41C-EA0BC93A0592}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3621,7 +3183,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3722,49 +3284,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>101</v>
+        <v>566</v>
       </c>
       <c r="D4" s="7">
-        <v>97852</v>
+        <v>588941</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
-        <v>67</v>
+        <v>476</v>
       </c>
       <c r="I4" s="7">
-        <v>75575</v>
+        <v>509775</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
-        <v>168</v>
+        <v>1042</v>
       </c>
       <c r="N4" s="7">
-        <v>173426</v>
+        <v>1098716</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,49 +3335,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7">
-        <v>13524</v>
+        <v>77994</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="I5" s="7">
-        <v>19676</v>
+        <v>113501</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="N5" s="7">
-        <v>33200</v>
+        <v>191495</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,49 +3386,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7">
-        <v>4389</v>
+        <v>36534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="I6" s="7">
-        <v>16654</v>
+        <v>73774</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="M6" s="7">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="N6" s="7">
-        <v>21043</v>
+        <v>110308</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,10 +3437,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D7" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3890,10 +3452,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I7" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3905,10 +3467,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N7" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -3928,49 +3490,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>465</v>
+        <v>785</v>
       </c>
       <c r="D8" s="7">
-        <v>491089</v>
+        <v>850650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="H8" s="7">
-        <v>409</v>
+        <v>700</v>
       </c>
       <c r="I8" s="7">
-        <v>434200</v>
+        <v>769676</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="M8" s="7">
-        <v>874</v>
+        <v>1485</v>
       </c>
       <c r="N8" s="7">
-        <v>925289</v>
+        <v>1620325</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,49 +3541,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="D9" s="7">
-        <v>64470</v>
+        <v>111976</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="H9" s="7">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="I9" s="7">
-        <v>93825</v>
+        <v>152760</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="M9" s="7">
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="N9" s="7">
-        <v>158295</v>
+        <v>264737</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,49 +3592,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7">
-        <v>32145</v>
+        <v>55321</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="I10" s="7">
-        <v>57120</v>
+        <v>108661</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="N10" s="7">
-        <v>89265</v>
+        <v>163982</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,10 +3643,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D11" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4096,10 +3658,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>939</v>
       </c>
       <c r="I11" s="7">
-        <v>585145</v>
+        <v>1031097</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4111,10 +3673,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1103</v>
+        <v>1875</v>
       </c>
       <c r="N11" s="7">
-        <v>1172849</v>
+        <v>2049044</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4128,55 +3690,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>785</v>
+        <v>606</v>
       </c>
       <c r="D12" s="7">
-        <v>850650</v>
+        <v>662733</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="H12" s="7">
-        <v>700</v>
+        <v>542</v>
       </c>
       <c r="I12" s="7">
-        <v>769676</v>
+        <v>597447</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="M12" s="7">
-        <v>1485</v>
+        <v>1148</v>
       </c>
       <c r="N12" s="7">
-        <v>1620325</v>
+        <v>1260179</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,49 +3747,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7">
-        <v>111976</v>
+        <v>62404</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="I13" s="7">
-        <v>152760</v>
+        <v>106427</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M13" s="7">
+        <v>156</v>
+      </c>
+      <c r="N13" s="7">
+        <v>168832</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M13" s="7">
-        <v>242</v>
-      </c>
-      <c r="N13" s="7">
-        <v>264737</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,49 +3798,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>55321</v>
+        <v>32486</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="I14" s="7">
-        <v>108661</v>
+        <v>73300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="N14" s="7">
-        <v>163982</v>
+        <v>105786</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,10 +3849,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D15" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4302,10 +3864,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>939</v>
+        <v>705</v>
       </c>
       <c r="I15" s="7">
-        <v>1031097</v>
+        <v>777174</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4317,10 +3879,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1875</v>
+        <v>1394</v>
       </c>
       <c r="N15" s="7">
-        <v>2049044</v>
+        <v>1534797</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4334,55 +3896,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>606</v>
+        <v>765</v>
       </c>
       <c r="D16" s="7">
-        <v>662733</v>
+        <v>787771</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
-        <v>542</v>
+        <v>732</v>
       </c>
       <c r="I16" s="7">
-        <v>597447</v>
+        <v>764610</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
-        <v>1148</v>
+        <v>1497</v>
       </c>
       <c r="N16" s="7">
-        <v>1260179</v>
+        <v>1552381</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,49 +3953,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D17" s="7">
-        <v>62404</v>
+        <v>106877</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="I17" s="7">
-        <v>106427</v>
+        <v>195707</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
-        <v>156</v>
+        <v>280</v>
       </c>
       <c r="N17" s="7">
-        <v>168832</v>
+        <v>302584</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,49 +4004,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D18" s="7">
-        <v>32486</v>
+        <v>49170</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
+        <v>247</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="H18" s="7">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="I18" s="7">
-        <v>73300</v>
+        <v>91584</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="N18" s="7">
-        <v>105786</v>
+        <v>140754</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,10 +4055,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>689</v>
+        <v>907</v>
       </c>
       <c r="D19" s="7">
-        <v>757623</v>
+        <v>943818</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4508,10 +4070,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I19" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4523,10 +4085,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1394</v>
+        <v>1910</v>
       </c>
       <c r="N19" s="7">
-        <v>1534797</v>
+        <v>1995719</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4540,55 +4102,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>765</v>
+        <v>2722</v>
       </c>
       <c r="D20" s="7">
-        <v>787771</v>
+        <v>2890095</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>277</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="H20" s="7">
-        <v>732</v>
+        <v>2450</v>
       </c>
       <c r="I20" s="7">
-        <v>764610</v>
+        <v>2641507</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="M20" s="7">
-        <v>1497</v>
+        <v>5172</v>
       </c>
       <c r="N20" s="7">
-        <v>1552381</v>
+        <v>5531602</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,49 +4159,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>97</v>
+        <v>330</v>
       </c>
       <c r="D21" s="7">
-        <v>106877</v>
+        <v>359252</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="H21" s="7">
-        <v>183</v>
+        <v>527</v>
       </c>
       <c r="I21" s="7">
-        <v>195707</v>
+        <v>568396</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="M21" s="7">
-        <v>280</v>
+        <v>857</v>
       </c>
       <c r="N21" s="7">
-        <v>302584</v>
+        <v>927648</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,49 +4210,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="D22" s="7">
-        <v>49170</v>
+        <v>173511</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
-        <v>88</v>
+        <v>320</v>
       </c>
       <c r="I22" s="7">
-        <v>91584</v>
+        <v>347319</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
-        <v>133</v>
+        <v>474</v>
       </c>
       <c r="N22" s="7">
-        <v>140754</v>
+        <v>520830</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,10 +4261,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>907</v>
+        <v>3206</v>
       </c>
       <c r="D23" s="7">
-        <v>943818</v>
+        <v>3422858</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -4714,10 +4276,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1003</v>
+        <v>3297</v>
       </c>
       <c r="I23" s="7">
-        <v>1051901</v>
+        <v>3557222</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4729,10 +4291,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1910</v>
+        <v>6503</v>
       </c>
       <c r="N23" s="7">
-        <v>1995719</v>
+        <v>6980080</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -4745,222 +4307,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2722</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2890095</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2450</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2641507</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="M24" s="7">
-        <v>5172</v>
-      </c>
-      <c r="N24" s="7">
-        <v>5531602</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>330</v>
-      </c>
-      <c r="D25" s="7">
-        <v>359252</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H25" s="7">
-        <v>527</v>
-      </c>
-      <c r="I25" s="7">
-        <v>568396</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M25" s="7">
-        <v>857</v>
-      </c>
-      <c r="N25" s="7">
-        <v>927648</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>154</v>
-      </c>
-      <c r="D26" s="7">
-        <v>173511</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H26" s="7">
-        <v>320</v>
-      </c>
-      <c r="I26" s="7">
-        <v>347319</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M26" s="7">
-        <v>474</v>
-      </c>
-      <c r="N26" s="7">
-        <v>520830</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3206</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3422858</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3557222</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6503</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6980080</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>172</v>
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4973,8 +4328,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346FD347-D578-403F-AC17-DC88FD6B08DF}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335C273E-500D-4BA6-A2D9-D6BF983CEF4E}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4990,7 +4345,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5091,49 +4446,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>85</v>
+        <v>546</v>
       </c>
       <c r="D4" s="7">
-        <v>88909</v>
+        <v>569902</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c r="H4" s="7">
-        <v>88</v>
+        <v>508</v>
       </c>
       <c r="I4" s="7">
-        <v>84963</v>
+        <v>502415</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="M4" s="7">
-        <v>173</v>
+        <v>1054</v>
       </c>
       <c r="N4" s="7">
-        <v>173872</v>
+        <v>1072316</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>181</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,49 +4497,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D5" s="7">
-        <v>20197</v>
+        <v>72574</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>293</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I5" s="7">
-        <v>15875</v>
+        <v>103500</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="N5" s="7">
-        <v>36072</v>
+        <v>176074</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,49 +4548,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7">
-        <v>7440</v>
+        <v>32324</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>343</v>
+        <v>60</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="H6" s="7">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="I6" s="7">
-        <v>12522</v>
+        <v>66924</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>346</v>
+        <v>94</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="M6" s="7">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="N6" s="7">
-        <v>19963</v>
+        <v>99248</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,10 +4599,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D7" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -5259,10 +4614,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I7" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -5274,10 +4629,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N7" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -5297,49 +4652,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>461</v>
+        <v>805</v>
       </c>
       <c r="D8" s="7">
-        <v>480993</v>
+        <v>876008</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="H8" s="7">
-        <v>420</v>
+        <v>762</v>
       </c>
       <c r="I8" s="7">
-        <v>417452</v>
+        <v>790167</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="M8" s="7">
-        <v>881</v>
+        <v>1567</v>
       </c>
       <c r="N8" s="7">
-        <v>898445</v>
+        <v>1666175</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,49 +4703,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="D9" s="7">
-        <v>52377</v>
+        <v>105435</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="H9" s="7">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="I9" s="7">
-        <v>87625</v>
+        <v>160081</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="M9" s="7">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="N9" s="7">
-        <v>140003</v>
+        <v>265516</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>138</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,49 +4754,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7">
-        <v>24884</v>
+        <v>40988</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="I10" s="7">
-        <v>54402</v>
+        <v>92665</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>116</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="M10" s="7">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="N10" s="7">
-        <v>79286</v>
+        <v>133653</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,10 +4805,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D11" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5465,10 +4820,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I11" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5480,10 +4835,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N11" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5497,55 +4852,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>805</v>
+        <v>597</v>
       </c>
       <c r="D12" s="7">
-        <v>876008</v>
+        <v>653527</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="H12" s="7">
-        <v>762</v>
+        <v>589</v>
       </c>
       <c r="I12" s="7">
-        <v>790167</v>
+        <v>616183</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
       <c r="M12" s="7">
-        <v>1567</v>
+        <v>1186</v>
       </c>
       <c r="N12" s="7">
-        <v>1666175</v>
+        <v>1269710</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,49 +4909,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="D13" s="7">
-        <v>105435</v>
+        <v>76189</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="H13" s="7">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="I13" s="7">
-        <v>160081</v>
+        <v>105917</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="N13" s="7">
-        <v>265516</v>
+        <v>182106</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,49 +4960,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>40988</v>
+        <v>29836</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I14" s="7">
-        <v>92665</v>
+        <v>62911</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="M14" s="7">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="N14" s="7">
-        <v>133653</v>
+        <v>92747</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>398</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>399</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,10 +5011,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D15" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5671,10 +5026,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I15" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5686,10 +5041,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N15" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5703,55 +5058,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>597</v>
+        <v>795</v>
       </c>
       <c r="D16" s="7">
-        <v>653527</v>
+        <v>802932</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
-        <v>589</v>
+        <v>779</v>
       </c>
       <c r="I16" s="7">
-        <v>616183</v>
+        <v>827106</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
-        <v>1186</v>
+        <v>1574</v>
       </c>
       <c r="N16" s="7">
-        <v>1269710</v>
+        <v>1630038</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,49 +5115,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D17" s="7">
-        <v>76189</v>
+        <v>84317</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="I17" s="7">
-        <v>105917</v>
+        <v>123644</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="N17" s="7">
-        <v>182106</v>
+        <v>207962</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,49 +5166,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D18" s="7">
-        <v>29836</v>
+        <v>50318</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>417</v>
+        <v>329</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>418</v>
+        <v>196</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="H18" s="7">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="I18" s="7">
-        <v>62911</v>
+        <v>93028</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>371</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="M18" s="7">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="N18" s="7">
-        <v>92747</v>
+        <v>143346</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,10 +5217,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D19" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5877,10 +5232,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I19" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5892,10 +5247,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N19" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5909,55 +5264,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>795</v>
+        <v>2743</v>
       </c>
       <c r="D20" s="7">
-        <v>802932</v>
+        <v>2902369</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
       <c r="H20" s="7">
-        <v>779</v>
+        <v>2638</v>
       </c>
       <c r="I20" s="7">
-        <v>827106</v>
+        <v>2735870</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
       <c r="M20" s="7">
-        <v>1574</v>
+        <v>5381</v>
       </c>
       <c r="N20" s="7">
-        <v>1630038</v>
+        <v>5638240</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>259</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,49 +5321,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D21" s="7">
-        <v>84317</v>
+        <v>338515</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>262</v>
+        <v>387</v>
       </c>
       <c r="H21" s="7">
-        <v>106</v>
+        <v>435</v>
       </c>
       <c r="I21" s="7">
-        <v>123644</v>
+        <v>493143</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>388</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>435</v>
+        <v>389</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="M21" s="7">
-        <v>193</v>
+        <v>768</v>
       </c>
       <c r="N21" s="7">
-        <v>207962</v>
+        <v>831659</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>311</v>
+        <v>391</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>105</v>
+        <v>392</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,49 +5372,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="D22" s="7">
-        <v>50318</v>
+        <v>153465</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H22" s="7">
+        <v>265</v>
+      </c>
+      <c r="I22" s="7">
+        <v>315528</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="H22" s="7">
-        <v>74</v>
-      </c>
-      <c r="I22" s="7">
-        <v>93028</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>440</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="M22" s="7">
-        <v>124</v>
+        <v>420</v>
       </c>
       <c r="N22" s="7">
-        <v>143346</v>
+        <v>468994</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D23" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -6083,10 +5438,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I23" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -6098,10 +5453,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N23" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -6114,222 +5469,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2743</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2902369</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2638</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2735870</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="M24" s="7">
-        <v>5381</v>
-      </c>
-      <c r="N24" s="7">
-        <v>5638240</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>333</v>
-      </c>
-      <c r="D25" s="7">
-        <v>338515</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="H25" s="7">
-        <v>435</v>
-      </c>
-      <c r="I25" s="7">
-        <v>493143</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="M25" s="7">
-        <v>768</v>
-      </c>
-      <c r="N25" s="7">
-        <v>831659</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>155</v>
-      </c>
-      <c r="D26" s="7">
-        <v>153465</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="H26" s="7">
-        <v>265</v>
-      </c>
-      <c r="I26" s="7">
-        <v>315528</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="M26" s="7">
-        <v>420</v>
-      </c>
-      <c r="N26" s="7">
-        <v>468994</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>172</v>
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6342,8 +5490,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8D8955-0D18-42ED-A4B6-5D4756A3610A}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F925F0-D9C1-4EBD-B734-EE86212EBC48}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6359,7 +5507,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>471</v>
+        <v>403</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6460,49 +5608,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>87</v>
+        <v>582</v>
       </c>
       <c r="D4" s="7">
-        <v>76280</v>
+        <v>526619</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>472</v>
+        <v>404</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>474</v>
+        <v>406</v>
       </c>
       <c r="H4" s="7">
-        <v>159</v>
+        <v>891</v>
       </c>
       <c r="I4" s="7">
-        <v>94470</v>
+        <v>572400</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>475</v>
+        <v>407</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>476</v>
+        <v>408</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>477</v>
+        <v>409</v>
       </c>
       <c r="M4" s="7">
-        <v>246</v>
+        <v>1473</v>
       </c>
       <c r="N4" s="7">
-        <v>170751</v>
+        <v>1099020</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>478</v>
+        <v>410</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>479</v>
+        <v>411</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>480</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6511,49 +5659,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="D5" s="7">
-        <v>19279</v>
+        <v>68479</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>481</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>372</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>482</v>
+        <v>413</v>
       </c>
       <c r="H5" s="7">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="I5" s="7">
-        <v>21203</v>
+        <v>92074</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>483</v>
+        <v>414</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>484</v>
+        <v>415</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>485</v>
+        <v>416</v>
       </c>
       <c r="M5" s="7">
-        <v>72</v>
+        <v>302</v>
       </c>
       <c r="N5" s="7">
-        <v>40482</v>
+        <v>160553</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>418</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>487</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6562,49 +5710,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D6" s="7">
-        <v>6423</v>
+        <v>40343</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>488</v>
+        <v>223</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>489</v>
+        <v>420</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>238</v>
+        <v>421</v>
       </c>
       <c r="H6" s="7">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="I6" s="7">
-        <v>15059</v>
+        <v>60856</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>490</v>
+        <v>293</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>491</v>
+        <v>422</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>492</v>
+        <v>423</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="N6" s="7">
-        <v>21483</v>
+        <v>101199</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>493</v>
+        <v>424</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>494</v>
+        <v>425</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>495</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,10 +5761,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D7" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -6628,10 +5776,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I7" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -6643,10 +5791,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N7" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -6666,49 +5814,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>495</v>
+        <v>818</v>
       </c>
       <c r="D8" s="7">
-        <v>461491</v>
+        <v>833886</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>496</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>497</v>
+        <v>426</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>498</v>
+        <v>427</v>
       </c>
       <c r="H8" s="7">
-        <v>732</v>
+        <v>1105</v>
       </c>
       <c r="I8" s="7">
-        <v>491787</v>
+        <v>739745</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>499</v>
+        <v>428</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>500</v>
+        <v>429</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="M8" s="7">
-        <v>1227</v>
+        <v>1923</v>
       </c>
       <c r="N8" s="7">
-        <v>953278</v>
+        <v>1573632</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>128</v>
+        <v>431</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>499</v>
+        <v>432</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,49 +5865,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D9" s="7">
-        <v>52239</v>
+        <v>326150</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>312</v>
+        <v>434</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>502</v>
+        <v>436</v>
       </c>
       <c r="H9" s="7">
-        <v>159</v>
+        <v>276</v>
       </c>
       <c r="I9" s="7">
-        <v>77366</v>
+        <v>147854</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>503</v>
+        <v>437</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>505</v>
+        <v>439</v>
       </c>
       <c r="M9" s="7">
-        <v>230</v>
+        <v>374</v>
       </c>
       <c r="N9" s="7">
-        <v>129605</v>
+        <v>474005</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>506</v>
+        <v>440</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>507</v>
+        <v>266</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>508</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,49 +5916,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7">
-        <v>36094</v>
+        <v>32828</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>442</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>443</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>444</v>
       </c>
       <c r="H10" s="7">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="I10" s="7">
-        <v>50813</v>
+        <v>70507</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>512</v>
+        <v>445</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>513</v>
+        <v>446</v>
       </c>
       <c r="M10" s="7">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="N10" s="7">
-        <v>86907</v>
+        <v>103335</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>514</v>
+        <v>448</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>511</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6819,10 +5967,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D11" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -6834,10 +5982,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>998</v>
+        <v>1516</v>
       </c>
       <c r="I11" s="7">
-        <v>619967</v>
+        <v>958106</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -6849,10 +5997,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1610</v>
+        <v>2480</v>
       </c>
       <c r="N11" s="7">
-        <v>1169790</v>
+        <v>2150971</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -6866,55 +6014,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>818</v>
+        <v>533</v>
       </c>
       <c r="D12" s="7">
-        <v>865023</v>
+        <v>578066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>515</v>
+        <v>450</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>516</v>
+        <v>451</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>517</v>
+        <v>452</v>
       </c>
       <c r="H12" s="7">
-        <v>1105</v>
+        <v>775</v>
       </c>
       <c r="I12" s="7">
-        <v>817943</v>
+        <v>777490</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>518</v>
+        <v>453</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>519</v>
+        <v>454</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>520</v>
+        <v>455</v>
       </c>
       <c r="M12" s="7">
-        <v>1923</v>
+        <v>1308</v>
       </c>
       <c r="N12" s="7">
-        <v>1682966</v>
+        <v>1355556</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>521</v>
+        <v>456</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>522</v>
+        <v>457</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>523</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6923,49 +6071,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D13" s="7">
-        <v>138275</v>
+        <v>94591</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>524</v>
+        <v>459</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>525</v>
+        <v>460</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>526</v>
+        <v>461</v>
       </c>
       <c r="H13" s="7">
-        <v>276</v>
+        <v>187</v>
       </c>
       <c r="I13" s="7">
-        <v>163346</v>
+        <v>106116</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>527</v>
+        <v>462</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>528</v>
+        <v>463</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>316</v>
+        <v>464</v>
       </c>
       <c r="M13" s="7">
-        <v>374</v>
+        <v>294</v>
       </c>
       <c r="N13" s="7">
-        <v>301621</v>
+        <v>200708</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>465</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>529</v>
+        <v>466</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>530</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,49 +6122,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7">
-        <v>35950</v>
+        <v>31276</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>531</v>
+        <v>468</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>532</v>
+        <v>469</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>533</v>
+        <v>470</v>
       </c>
       <c r="H14" s="7">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="I14" s="7">
-        <v>78185</v>
+        <v>49759</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>534</v>
+        <v>471</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>535</v>
+        <v>365</v>
       </c>
       <c r="M14" s="7">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="N14" s="7">
-        <v>114135</v>
+        <v>81036</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>536</v>
+        <v>473</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>537</v>
+        <v>474</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>538</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7025,10 +6173,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D15" s="7">
-        <v>1039248</v>
+        <v>703933</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -7040,10 +6188,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>1516</v>
+        <v>1047</v>
       </c>
       <c r="I15" s="7">
-        <v>1059474</v>
+        <v>933366</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -7055,10 +6203,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>2480</v>
+        <v>1722</v>
       </c>
       <c r="N15" s="7">
-        <v>2098722</v>
+        <v>1637299</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -7072,55 +6220,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>533</v>
+        <v>814</v>
       </c>
       <c r="D16" s="7">
-        <v>594066</v>
+        <v>785839</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>539</v>
+        <v>452</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>540</v>
+        <v>476</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>252</v>
+        <v>477</v>
       </c>
       <c r="H16" s="7">
-        <v>775</v>
+        <v>1118</v>
       </c>
       <c r="I16" s="7">
-        <v>703217</v>
+        <v>847124</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>541</v>
+        <v>478</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>543</v>
+        <v>480</v>
       </c>
       <c r="M16" s="7">
-        <v>1308</v>
+        <v>1932</v>
       </c>
       <c r="N16" s="7">
-        <v>1297283</v>
+        <v>1632963</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>544</v>
+        <v>481</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>545</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>546</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7129,49 +6277,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D17" s="7">
-        <v>100187</v>
+        <v>94400</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>483</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>547</v>
+        <v>484</v>
       </c>
       <c r="H17" s="7">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="I17" s="7">
-        <v>115603</v>
+        <v>151597</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>548</v>
+        <v>485</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>486</v>
       </c>
       <c r="M17" s="7">
-        <v>294</v>
+        <v>399</v>
       </c>
       <c r="N17" s="7">
-        <v>215789</v>
+        <v>245997</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>549</v>
+        <v>487</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>550</v>
+        <v>488</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7180,49 +6328,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D18" s="7">
-        <v>33701</v>
+        <v>46592</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>537</v>
+        <v>146</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>551</v>
+        <v>490</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>342</v>
+        <v>491</v>
       </c>
       <c r="H18" s="7">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="I18" s="7">
-        <v>55551</v>
+        <v>95638</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>552</v>
+        <v>253</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>553</v>
+        <v>492</v>
       </c>
       <c r="M18" s="7">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="N18" s="7">
-        <v>89252</v>
+        <v>142230</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>493</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>64</v>
+        <v>445</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>554</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7231,10 +6379,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>675</v>
+        <v>1006</v>
       </c>
       <c r="D19" s="7">
-        <v>727954</v>
+        <v>926831</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -7246,10 +6394,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>1047</v>
+        <v>1561</v>
       </c>
       <c r="I19" s="7">
-        <v>874371</v>
+        <v>1094359</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -7261,10 +6409,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1722</v>
+        <v>2567</v>
       </c>
       <c r="N19" s="7">
-        <v>1602324</v>
+        <v>2021190</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -7278,55 +6426,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>814</v>
+        <v>2747</v>
       </c>
       <c r="D20" s="7">
-        <v>815951</v>
+        <v>2724411</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>555</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>556</v>
+        <v>495</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>557</v>
+        <v>496</v>
       </c>
       <c r="H20" s="7">
-        <v>1118</v>
+        <v>3889</v>
       </c>
       <c r="I20" s="7">
-        <v>869884</v>
+        <v>2936759</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>558</v>
+        <v>497</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>559</v>
+        <v>498</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>560</v>
+        <v>499</v>
       </c>
       <c r="M20" s="7">
-        <v>1932</v>
+        <v>6636</v>
       </c>
       <c r="N20" s="7">
-        <v>1685834</v>
+        <v>5661170</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>500</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>561</v>
+        <v>501</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>562</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7335,49 +6483,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>127</v>
+        <v>425</v>
       </c>
       <c r="D21" s="7">
-        <v>99765</v>
+        <v>583621</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>187</v>
+        <v>503</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>563</v>
+        <v>504</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>564</v>
+        <v>505</v>
       </c>
       <c r="H21" s="7">
-        <v>272</v>
+        <v>944</v>
       </c>
       <c r="I21" s="7">
-        <v>171804</v>
+        <v>497642</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>565</v>
+        <v>506</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>566</v>
+        <v>507</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>567</v>
+        <v>508</v>
       </c>
       <c r="M21" s="7">
-        <v>399</v>
+        <v>1369</v>
       </c>
       <c r="N21" s="7">
-        <v>271569</v>
+        <v>1081262</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>568</v>
+        <v>509</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>569</v>
+        <v>510</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>570</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7386,49 +6534,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="D22" s="7">
-        <v>49687</v>
+        <v>151039</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>571</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>573</v>
+        <v>513</v>
       </c>
       <c r="H22" s="7">
-        <v>171</v>
+        <v>532</v>
       </c>
       <c r="I22" s="7">
-        <v>108114</v>
+        <v>276760</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>574</v>
+        <v>279</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>575</v>
+        <v>514</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>576</v>
+        <v>515</v>
       </c>
       <c r="M22" s="7">
-        <v>236</v>
+        <v>735</v>
       </c>
       <c r="N22" s="7">
-        <v>157801</v>
+        <v>427799</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>325</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>516</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7437,10 +6585,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1006</v>
+        <v>3375</v>
       </c>
       <c r="D23" s="7">
-        <v>965403</v>
+        <v>3459070</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -7452,10 +6600,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1561</v>
+        <v>5365</v>
       </c>
       <c r="I23" s="7">
-        <v>1149802</v>
+        <v>3711161</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -7467,10 +6615,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>2567</v>
+        <v>8740</v>
       </c>
       <c r="N23" s="7">
-        <v>2115204</v>
+        <v>7170231</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -7483,222 +6631,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2747</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2812811</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3889</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2977301</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6636</v>
-      </c>
-      <c r="N24" s="7">
-        <v>5790112</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>425</v>
-      </c>
-      <c r="D25" s="7">
-        <v>409744</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="H25" s="7">
-        <v>944</v>
-      </c>
-      <c r="I25" s="7">
-        <v>549323</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1369</v>
-      </c>
-      <c r="N25" s="7">
-        <v>959067</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>203</v>
-      </c>
-      <c r="D26" s="7">
-        <v>161855</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="7">
-        <v>532</v>
-      </c>
-      <c r="I26" s="7">
-        <v>307723</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="M26" s="7">
-        <v>735</v>
-      </c>
-      <c r="N26" s="7">
-        <v>469578</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3375</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3384410</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5365</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3834346</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8740</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7218756</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>172</v>
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
